--- a/data/trans_dic/IP43-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP43-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 28,68</t>
+          <t>17,32; 28,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 21,4</t>
+          <t>10,85; 21,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,47; 25,26</t>
+          <t>14,73; 25,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 19,87</t>
+          <t>10,09; 19,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,36; 24,95</t>
+          <t>17,21; 24,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 18,53</t>
+          <t>11,64; 19,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,73; 27,92</t>
+          <t>19,54; 28,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,56</t>
+          <t>7,26; 13,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 28,15</t>
+          <t>19,34; 28,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 17,4</t>
+          <t>9,75; 16,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 26,85</t>
+          <t>20,69; 26,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 13,98</t>
+          <t>9,13; 13,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 29,56</t>
+          <t>18,09; 29,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 13,52</t>
+          <t>6,37; 13,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,22; 32,3</t>
+          <t>20,65; 31,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,14</t>
+          <t>6,33; 13,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,23; 29,16</t>
+          <t>21,39; 29,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,2</t>
+          <t>7,21; 12,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 27,96</t>
+          <t>17,76; 27,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 17,66</t>
+          <t>8,9; 17,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 27,28</t>
+          <t>16,92; 26,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 18,37</t>
+          <t>10,06; 18,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 26,27</t>
+          <t>18,67; 25,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,82</t>
+          <t>10,28; 16,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,73</t>
+          <t>20,98; 25,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,34</t>
+          <t>9,76; 13,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,45; 25,56</t>
+          <t>20,37; 25,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,42; 14,32</t>
+          <t>10,43; 14,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,36; 25,05</t>
+          <t>21,46; 25,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 13,27</t>
+          <t>10,56; 13,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">

--- a/data/trans_dic/IP43-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP43-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,27 +632,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>22,68%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>15,46%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19,24%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -685,42 +685,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,32; 28,92</t>
+          <t>14,43; 25,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 21,34</t>
+          <t>10,14; 20,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,74</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 28,71</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10,66; 21,32</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,64</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>14,73; 25,39</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 19,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,74</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,86</t>
+          <t>17,28; 25,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 19,2</t>
+          <t>11,65; 18,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>23,86%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>10,07%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>23,63%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -795,42 +795,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,54; 28,28</t>
+          <t>19,46; 28,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 13,26</t>
+          <t>9,45; 16,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,74</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 28,81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 13,79</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,69</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>19,34; 28,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>9,75; 16,84</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,74</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 26,81</t>
+          <t>20,63; 27,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,96</t>
+          <t>9,1; 13,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,27 +852,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>26,18%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>23,76%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>9,54%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,18%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -905,42 +905,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,09; 29,92</t>
+          <t>21,04; 33,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,27</t>
+          <t>6,11; 12,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,82</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 29,09</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 13,6</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,79</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>20,65; 31,83</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,33; 13,11</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,82</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,39; 29,21</t>
+          <t>21,21; 29,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,24</t>
+          <t>6,79; 11,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,27 +962,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>22,85%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>12,73%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>21,66%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 27,82</t>
+          <t>16,98; 27,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 17,06</t>
+          <t>10,0; 18,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 26,69</t>
+          <t>18,02; 28,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 18,6</t>
+          <t>8,85; 17,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,67; 25,95</t>
+          <t>18,68; 26,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 16,55</t>
+          <t>10,33; 16,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,27 +1072,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>23,37%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>11,46%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>22,81%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,98; 25,92</t>
+          <t>20,17; 25,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,68</t>
+          <t>10,65; 14,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,37; 25,65</t>
+          <t>20,9; 25,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,43; 14,35</t>
+          <t>9,65; 13,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,46; 25,02</t>
+          <t>21,44; 24,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 13,31</t>
+          <t>10,62; 13,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
